--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H2">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I2">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J2">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4475002323018</v>
+        <v>16.36026066666667</v>
       </c>
       <c r="N2">
-        <v>11.4475002323018</v>
+        <v>49.080782</v>
       </c>
       <c r="O2">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="P2">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="Q2">
-        <v>55.55651293691819</v>
+        <v>187.5859035238655</v>
       </c>
       <c r="R2">
-        <v>55.55651293691819</v>
+        <v>1688.27313171479</v>
       </c>
       <c r="S2">
-        <v>0.001397789496717605</v>
+        <v>0.003892703360316614</v>
       </c>
       <c r="T2">
-        <v>0.001397789496717605</v>
+        <v>0.003892703360316615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H3">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I3">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J3">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.7592588474027</v>
+        <v>27.913432</v>
       </c>
       <c r="N3">
-        <v>27.7592588474027</v>
+        <v>83.740296</v>
       </c>
       <c r="O3">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="P3">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="Q3">
-        <v>134.7200342414748</v>
+        <v>320.0539691180133</v>
       </c>
       <c r="R3">
-        <v>134.7200342414748</v>
+        <v>2880.48572206212</v>
       </c>
       <c r="S3">
-        <v>0.003389526068239506</v>
+        <v>0.006641624651235344</v>
       </c>
       <c r="T3">
-        <v>0.003389526068239506</v>
+        <v>0.006641624651235346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H4">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I4">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J4">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.0401242983166</v>
+        <v>14.227296</v>
       </c>
       <c r="N4">
-        <v>13.0401242983166</v>
+        <v>42.68188799999999</v>
       </c>
       <c r="O4">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="P4">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="Q4">
-        <v>63.28576716113123</v>
+        <v>163.1294408590399</v>
       </c>
       <c r="R4">
-        <v>63.28576716113123</v>
+        <v>1468.16496773136</v>
       </c>
       <c r="S4">
-        <v>0.001592255812203109</v>
+        <v>0.00338519318706571</v>
       </c>
       <c r="T4">
-        <v>0.001592255812203109</v>
+        <v>0.003385193187065711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H5">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I5">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J5">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.85408789580239</v>
+        <v>6.972696</v>
       </c>
       <c r="N5">
-        <v>6.85408789580239</v>
+        <v>20.918088</v>
       </c>
       <c r="O5">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="P5">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="Q5">
-        <v>33.26396288505275</v>
+        <v>79.94857208003999</v>
       </c>
       <c r="R5">
-        <v>33.26396288505275</v>
+        <v>719.5371487203599</v>
       </c>
       <c r="S5">
-        <v>0.0008369139004948896</v>
+        <v>0.001659058966277241</v>
       </c>
       <c r="T5">
-        <v>0.0008369139004948896</v>
+        <v>0.001659058966277242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H6">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I6">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J6">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.2563673299423</v>
+        <v>48.33663566666667</v>
       </c>
       <c r="N6">
-        <v>47.2563673299423</v>
+        <v>145.009907</v>
       </c>
       <c r="O6">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="P6">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="Q6">
-        <v>229.342557732344</v>
+        <v>554.2253671611571</v>
       </c>
       <c r="R6">
-        <v>229.342557732344</v>
+        <v>4988.028304450415</v>
       </c>
       <c r="S6">
-        <v>0.005770207693067718</v>
+        <v>0.01150105049789345</v>
       </c>
       <c r="T6">
-        <v>0.005770207693067718</v>
+        <v>0.01150105049789345</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H7">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I7">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J7">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.0943540038381</v>
+        <v>43.47278266666666</v>
       </c>
       <c r="N7">
-        <v>31.0943540038381</v>
+        <v>130.418348</v>
       </c>
       <c r="O7">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080258</v>
       </c>
       <c r="P7">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080257</v>
       </c>
       <c r="Q7">
-        <v>150.9057737867361</v>
+        <v>498.4566799622287</v>
       </c>
       <c r="R7">
-        <v>150.9057737867361</v>
+        <v>4486.110119660058</v>
       </c>
       <c r="S7">
-        <v>0.003796755671700435</v>
+        <v>0.01034376227963404</v>
       </c>
       <c r="T7">
-        <v>0.003796755671700435</v>
+        <v>0.01034376227963404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H8">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I8">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J8">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.4475002323018</v>
+        <v>16.36026066666667</v>
       </c>
       <c r="N8">
-        <v>11.4475002323018</v>
+        <v>49.080782</v>
       </c>
       <c r="O8">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="P8">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="Q8">
-        <v>1297.948367744256</v>
+        <v>1863.626146586395</v>
       </c>
       <c r="R8">
-        <v>1297.948367744256</v>
+        <v>16772.63531927756</v>
       </c>
       <c r="S8">
-        <v>0.03265609196485544</v>
+        <v>0.0386731818698083</v>
       </c>
       <c r="T8">
-        <v>0.03265609196485544</v>
+        <v>0.0386731818698083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H9">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I9">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J9">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.7592588474027</v>
+        <v>27.913432</v>
       </c>
       <c r="N9">
-        <v>27.7592588474027</v>
+        <v>83.740296</v>
       </c>
       <c r="O9">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="P9">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="Q9">
-        <v>3147.419434778374</v>
+        <v>3179.66826910957</v>
       </c>
       <c r="R9">
-        <v>3147.419434778374</v>
+        <v>28617.01442198613</v>
       </c>
       <c r="S9">
-        <v>0.07918837225607409</v>
+        <v>0.06598313158579219</v>
       </c>
       <c r="T9">
-        <v>0.07918837225607409</v>
+        <v>0.06598313158579219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H10">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I10">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J10">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.0401242983166</v>
+        <v>14.227296</v>
       </c>
       <c r="N10">
-        <v>13.0401242983166</v>
+        <v>42.68188799999999</v>
       </c>
       <c r="O10">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="P10">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="Q10">
-        <v>1478.524368178063</v>
+        <v>1620.656379567712</v>
       </c>
       <c r="R10">
-        <v>1478.524368178063</v>
+        <v>14585.9074161094</v>
       </c>
       <c r="S10">
-        <v>0.03719934393339142</v>
+        <v>0.03363117599004001</v>
       </c>
       <c r="T10">
-        <v>0.03719934393339142</v>
+        <v>0.03363117599004002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H11">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I11">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J11">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.85408789580239</v>
+        <v>6.972696</v>
       </c>
       <c r="N11">
-        <v>6.85408789580239</v>
+        <v>20.918088</v>
       </c>
       <c r="O11">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="P11">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="Q11">
-        <v>777.13492170365</v>
+        <v>794.272098871512</v>
       </c>
       <c r="R11">
-        <v>777.13492170365</v>
+        <v>7148.448889843608</v>
       </c>
       <c r="S11">
-        <v>0.01955254161331598</v>
+        <v>0.01648239878477598</v>
       </c>
       <c r="T11">
-        <v>0.01955254161331598</v>
+        <v>0.01648239878477598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H12">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I12">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J12">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.2563673299423</v>
+        <v>48.33663566666667</v>
       </c>
       <c r="N12">
-        <v>47.2563673299423</v>
+        <v>145.009907</v>
       </c>
       <c r="O12">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="P12">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="Q12">
-        <v>5358.054037714435</v>
+        <v>5506.111418503104</v>
       </c>
       <c r="R12">
-        <v>5358.054037714435</v>
+        <v>49555.00276652793</v>
       </c>
       <c r="S12">
-        <v>0.1348074467032604</v>
+        <v>0.1142604962230428</v>
       </c>
       <c r="T12">
-        <v>0.1348074467032604</v>
+        <v>0.1142604962230428</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H13">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I13">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J13">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.0943540038381</v>
+        <v>43.47278266666666</v>
       </c>
       <c r="N13">
-        <v>31.0943540038381</v>
+        <v>130.418348</v>
       </c>
       <c r="O13">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080258</v>
       </c>
       <c r="P13">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080257</v>
       </c>
       <c r="Q13">
-        <v>3525.561494330592</v>
+        <v>4952.061345057696</v>
       </c>
       <c r="R13">
-        <v>3525.561494330592</v>
+        <v>44568.55210551926</v>
       </c>
       <c r="S13">
-        <v>0.08870234228708399</v>
+        <v>0.102763083346226</v>
       </c>
       <c r="T13">
-        <v>0.08870234228708399</v>
+        <v>0.102763083346226</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H14">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I14">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J14">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.4475002323018</v>
+        <v>16.36026066666667</v>
       </c>
       <c r="N14">
-        <v>11.4475002323018</v>
+        <v>49.080782</v>
       </c>
       <c r="O14">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="P14">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="Q14">
-        <v>636.8123230752115</v>
+        <v>1010.242202424628</v>
       </c>
       <c r="R14">
-        <v>636.8123230752115</v>
+        <v>9092.179821821652</v>
       </c>
       <c r="S14">
-        <v>0.01602205627242245</v>
+        <v>0.02096411906351847</v>
       </c>
       <c r="T14">
-        <v>0.01602205627242245</v>
+        <v>0.02096411906351848</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H15">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I15">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J15">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.7592588474027</v>
+        <v>27.913432</v>
       </c>
       <c r="N15">
-        <v>27.7592588474027</v>
+        <v>83.740296</v>
       </c>
       <c r="O15">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="P15">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="Q15">
-        <v>1544.218192158634</v>
+        <v>1723.647782603184</v>
       </c>
       <c r="R15">
-        <v>1544.218192158634</v>
+        <v>15512.83004342865</v>
       </c>
       <c r="S15">
-        <v>0.03885218591905604</v>
+        <v>0.03576841004200544</v>
       </c>
       <c r="T15">
-        <v>0.03885218591905604</v>
+        <v>0.03576841004200544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H16">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I16">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J16">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.0401242983166</v>
+        <v>14.227296</v>
       </c>
       <c r="N16">
-        <v>13.0401242983166</v>
+        <v>42.68188799999999</v>
       </c>
       <c r="O16">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="P16">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="Q16">
-        <v>725.4083143993753</v>
+        <v>878.5321419035517</v>
       </c>
       <c r="R16">
-        <v>725.4083143993753</v>
+        <v>7906.789277131966</v>
       </c>
       <c r="S16">
-        <v>0.01825111168964803</v>
+        <v>0.01823092757339849</v>
       </c>
       <c r="T16">
-        <v>0.01825111168964803</v>
+        <v>0.01823092757339849</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H17">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I17">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J17">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.85408789580239</v>
+        <v>6.972696</v>
       </c>
       <c r="N17">
-        <v>6.85408789580239</v>
+        <v>20.918088</v>
       </c>
       <c r="O17">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="P17">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="Q17">
-        <v>381.2856559872692</v>
+        <v>430.562318498352</v>
       </c>
       <c r="R17">
-        <v>381.2856559872692</v>
+        <v>3875.060866485168</v>
       </c>
       <c r="S17">
-        <v>0.00959306221744397</v>
+        <v>0.008934847195653016</v>
       </c>
       <c r="T17">
-        <v>0.00959306221744397</v>
+        <v>0.008934847195653017</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H18">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I18">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J18">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>47.2563673299423</v>
+        <v>48.33663566666667</v>
       </c>
       <c r="N18">
-        <v>47.2563673299423</v>
+        <v>145.009907</v>
       </c>
       <c r="O18">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="P18">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="Q18">
-        <v>2628.821703323526</v>
+        <v>2984.775748297378</v>
       </c>
       <c r="R18">
-        <v>2628.821703323526</v>
+        <v>26862.9817346764</v>
       </c>
       <c r="S18">
-        <v>0.06614056879021865</v>
+        <v>0.06193880439267942</v>
       </c>
       <c r="T18">
-        <v>0.06614056879021865</v>
+        <v>0.06193880439267942</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H19">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I19">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J19">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.0943540038381</v>
+        <v>43.47278266666666</v>
       </c>
       <c r="N19">
-        <v>31.0943540038381</v>
+        <v>130.418348</v>
       </c>
       <c r="O19">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080258</v>
       </c>
       <c r="P19">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080257</v>
       </c>
       <c r="Q19">
-        <v>1729.746006192097</v>
+        <v>2684.433983144391</v>
       </c>
       <c r="R19">
-        <v>1729.746006192097</v>
+        <v>24159.90584829952</v>
       </c>
       <c r="S19">
-        <v>0.04352002441531673</v>
+        <v>0.05570623906398611</v>
       </c>
       <c r="T19">
-        <v>0.04352002441531673</v>
+        <v>0.0557062390639861</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H20">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I20">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J20">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.4475002323018</v>
+        <v>16.36026066666667</v>
       </c>
       <c r="N20">
-        <v>11.4475002323018</v>
+        <v>49.080782</v>
       </c>
       <c r="O20">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="P20">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="Q20">
-        <v>716.840070444495</v>
+        <v>1036.607760464862</v>
       </c>
       <c r="R20">
-        <v>716.840070444495</v>
+        <v>9329.469844183757</v>
       </c>
       <c r="S20">
-        <v>0.01803553657932667</v>
+        <v>0.02151124597685172</v>
       </c>
       <c r="T20">
-        <v>0.01803553657932667</v>
+        <v>0.02151124597685173</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H21">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I21">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J21">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.7592588474027</v>
+        <v>27.913432</v>
       </c>
       <c r="N21">
-        <v>27.7592588474027</v>
+        <v>83.740296</v>
       </c>
       <c r="O21">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="P21">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="Q21">
-        <v>1738.27898352075</v>
+        <v>1768.631980990536</v>
       </c>
       <c r="R21">
-        <v>1738.27898352075</v>
+        <v>15917.68782891482</v>
       </c>
       <c r="S21">
-        <v>0.04373471222517376</v>
+        <v>0.03670190310803061</v>
       </c>
       <c r="T21">
-        <v>0.04373471222517376</v>
+        <v>0.03670190310803061</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H22">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I22">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J22">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.0401242983166</v>
+        <v>14.227296</v>
       </c>
       <c r="N22">
-        <v>13.0401242983166</v>
+        <v>42.68188799999999</v>
       </c>
       <c r="O22">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="P22">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="Q22">
-        <v>816.5698563808338</v>
+        <v>901.4602972726078</v>
       </c>
       <c r="R22">
-        <v>816.5698563808338</v>
+        <v>8113.14267545347</v>
       </c>
       <c r="S22">
-        <v>0.02054471579023203</v>
+        <v>0.01870672295980198</v>
       </c>
       <c r="T22">
-        <v>0.02054471579023203</v>
+        <v>0.01870672295980198</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H23">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I23">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J23">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.85408789580239</v>
+        <v>6.972696</v>
       </c>
       <c r="N23">
-        <v>6.85408789580239</v>
+        <v>20.918088</v>
       </c>
       <c r="O23">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="P23">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="Q23">
-        <v>429.2015505879409</v>
+        <v>441.799243436808</v>
       </c>
       <c r="R23">
-        <v>429.2015505879409</v>
+        <v>3976.193190931272</v>
       </c>
       <c r="S23">
-        <v>0.01079861545788394</v>
+        <v>0.009168031111106386</v>
       </c>
       <c r="T23">
-        <v>0.01079861545788394</v>
+        <v>0.009168031111106388</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H24">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I24">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J24">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>47.2563673299423</v>
+        <v>48.33663566666667</v>
       </c>
       <c r="N24">
-        <v>47.2563673299423</v>
+        <v>145.009907</v>
       </c>
       <c r="O24">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="P24">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="Q24">
-        <v>2959.183839119723</v>
+        <v>3062.673185208987</v>
       </c>
       <c r="R24">
-        <v>2959.183839119723</v>
+        <v>27564.05866688088</v>
       </c>
       <c r="S24">
-        <v>0.07445240657696826</v>
+        <v>0.06355529906914265</v>
       </c>
       <c r="T24">
-        <v>0.07445240657696826</v>
+        <v>0.06355529906914265</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H25">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I25">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J25">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>31.0943540038381</v>
+        <v>43.47278266666666</v>
       </c>
       <c r="N25">
-        <v>31.0943540038381</v>
+        <v>130.418348</v>
       </c>
       <c r="O25">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080258</v>
       </c>
       <c r="P25">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080257</v>
       </c>
       <c r="Q25">
-        <v>1947.121944723078</v>
+        <v>2754.493024251467</v>
       </c>
       <c r="R25">
-        <v>1947.121944723078</v>
+        <v>24790.43721826321</v>
       </c>
       <c r="S25">
-        <v>0.04898915463345586</v>
+        <v>0.05716007466471597</v>
       </c>
       <c r="T25">
-        <v>0.04898915463345586</v>
+        <v>0.05716007466471597</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H26">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I26">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J26">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.4475002323018</v>
+        <v>16.36026066666667</v>
       </c>
       <c r="N26">
-        <v>11.4475002323018</v>
+        <v>49.080782</v>
       </c>
       <c r="O26">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="P26">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="Q26">
-        <v>439.9876290257431</v>
+        <v>657.4358533238701</v>
       </c>
       <c r="R26">
-        <v>439.9876290257431</v>
+        <v>5916.922679914832</v>
       </c>
       <c r="S26">
-        <v>0.01106999079002998</v>
+        <v>0.01364283087028902</v>
       </c>
       <c r="T26">
-        <v>0.01106999079002998</v>
+        <v>0.01364283087028902</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H27">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I27">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J27">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.7592588474027</v>
+        <v>27.913432</v>
       </c>
       <c r="N27">
-        <v>27.7592588474027</v>
+        <v>83.740296</v>
       </c>
       <c r="O27">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="P27">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="Q27">
-        <v>1066.934285733116</v>
+        <v>1121.699180717077</v>
       </c>
       <c r="R27">
-        <v>1066.934285733116</v>
+        <v>10095.2926264537</v>
       </c>
       <c r="S27">
-        <v>0.02684382909307154</v>
+        <v>0.02327702715404861</v>
       </c>
       <c r="T27">
-        <v>0.02684382909307154</v>
+        <v>0.02327702715404861</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H28">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I28">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J28">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.0401242983166</v>
+        <v>14.227296</v>
       </c>
       <c r="N28">
-        <v>13.0401242983166</v>
+        <v>42.68188799999999</v>
       </c>
       <c r="O28">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="P28">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="Q28">
-        <v>501.200546476306</v>
+        <v>571.7228274552318</v>
       </c>
       <c r="R28">
-        <v>501.200546476306</v>
+        <v>5145.505447097087</v>
       </c>
       <c r="S28">
-        <v>0.01261009416500226</v>
+        <v>0.01186415039614932</v>
       </c>
       <c r="T28">
-        <v>0.01261009416500226</v>
+        <v>0.01186415039614932</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H29">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I29">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J29">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.85408789580239</v>
+        <v>6.972696</v>
       </c>
       <c r="N29">
-        <v>6.85408789580239</v>
+        <v>20.918088</v>
       </c>
       <c r="O29">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="P29">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="Q29">
-        <v>263.4386391099251</v>
+        <v>280.197268132032</v>
       </c>
       <c r="R29">
-        <v>263.4386391099251</v>
+        <v>2521.775413188288</v>
       </c>
       <c r="S29">
-        <v>0.006628057509576655</v>
+        <v>0.005814535243424244</v>
       </c>
       <c r="T29">
-        <v>0.006628057509576655</v>
+        <v>0.005814535243424245</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H30">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I30">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J30">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>47.2563673299423</v>
+        <v>48.33663566666667</v>
       </c>
       <c r="N30">
-        <v>47.2563673299423</v>
+        <v>145.009907</v>
       </c>
       <c r="O30">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="P30">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="Q30">
-        <v>1816.310687568347</v>
+        <v>1942.404095129537</v>
       </c>
       <c r="R30">
-        <v>1816.310687568347</v>
+        <v>17481.63685616583</v>
       </c>
       <c r="S30">
-        <v>0.0456979725264917</v>
+        <v>0.04030794855137679</v>
       </c>
       <c r="T30">
-        <v>0.0456979725264917</v>
+        <v>0.04030794855137679</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H31">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I31">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J31">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>31.0943540038381</v>
+        <v>43.47278266666666</v>
       </c>
       <c r="N31">
-        <v>31.0943540038381</v>
+        <v>130.418348</v>
       </c>
       <c r="O31">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080258</v>
       </c>
       <c r="P31">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080257</v>
       </c>
       <c r="Q31">
-        <v>1195.119529732031</v>
+        <v>1746.950525492227</v>
       </c>
       <c r="R31">
-        <v>1195.119529732031</v>
+        <v>15722.55472943005</v>
       </c>
       <c r="S31">
-        <v>0.03006894129367552</v>
+        <v>0.03625197871025151</v>
       </c>
       <c r="T31">
-        <v>0.03006894129367552</v>
+        <v>0.03625197871025151</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H32">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I32">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J32">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.4475002323018</v>
+        <v>16.36026066666667</v>
       </c>
       <c r="N32">
-        <v>11.4475002323018</v>
+        <v>49.080782</v>
       </c>
       <c r="O32">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="P32">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="Q32">
-        <v>163.0515957508771</v>
+        <v>257.032766921606</v>
       </c>
       <c r="R32">
-        <v>163.0515957508771</v>
+        <v>2313.294902294454</v>
       </c>
       <c r="S32">
-        <v>0.004102341848243861</v>
+        <v>0.00533383530804551</v>
       </c>
       <c r="T32">
-        <v>0.004102341848243861</v>
+        <v>0.00533383530804551</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H33">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I33">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J33">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>27.7592588474027</v>
+        <v>27.913432</v>
       </c>
       <c r="N33">
-        <v>27.7592588474027</v>
+        <v>83.740296</v>
       </c>
       <c r="O33">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="P33">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="Q33">
-        <v>395.3868844797186</v>
+        <v>438.542319552168</v>
       </c>
       <c r="R33">
-        <v>395.3868844797186</v>
+        <v>3946.880875969512</v>
       </c>
       <c r="S33">
-        <v>0.009947845986899431</v>
+        <v>0.009100444803650078</v>
       </c>
       <c r="T33">
-        <v>0.009947845986899431</v>
+        <v>0.009100444803650078</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H34">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I34">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J34">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>13.0401242983166</v>
+        <v>14.227296</v>
       </c>
       <c r="N34">
-        <v>13.0401242983166</v>
+        <v>42.68188799999999</v>
       </c>
       <c r="O34">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="P34">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="Q34">
-        <v>185.7360150673507</v>
+        <v>223.5221877695039</v>
       </c>
       <c r="R34">
-        <v>185.7360150673507</v>
+        <v>2011.699689925535</v>
       </c>
       <c r="S34">
-        <v>0.004673076787920651</v>
+        <v>0.004638437937448591</v>
       </c>
       <c r="T34">
-        <v>0.004673076787920651</v>
+        <v>0.004638437937448591</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H35">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I35">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J35">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.85408789580239</v>
+        <v>6.972696</v>
       </c>
       <c r="N35">
-        <v>6.85408789580239</v>
+        <v>20.918088</v>
       </c>
       <c r="O35">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="P35">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="Q35">
-        <v>97.6256777592252</v>
+        <v>109.546625344104</v>
       </c>
       <c r="R35">
-        <v>97.6256777592252</v>
+        <v>985.919628096936</v>
       </c>
       <c r="S35">
-        <v>0.002456240317615445</v>
+        <v>0.002273265253825888</v>
       </c>
       <c r="T35">
-        <v>0.002456240317615445</v>
+        <v>0.002273265253825889</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H36">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I36">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J36">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>47.2563673299423</v>
+        <v>48.33663566666667</v>
       </c>
       <c r="N36">
-        <v>47.2563673299423</v>
+        <v>145.009907</v>
       </c>
       <c r="O36">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="P36">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="Q36">
-        <v>673.0924609020412</v>
+        <v>759.407167295231</v>
       </c>
       <c r="R36">
-        <v>673.0924609020412</v>
+        <v>6834.664505657079</v>
       </c>
       <c r="S36">
-        <v>0.016934856462949</v>
+        <v>0.01575889646528036</v>
       </c>
       <c r="T36">
-        <v>0.016934856462949</v>
+        <v>0.01575889646528036</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H37">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I37">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J37">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>31.0943540038381</v>
+        <v>43.47278266666666</v>
       </c>
       <c r="N37">
-        <v>31.0943540038381</v>
+        <v>130.418348</v>
       </c>
       <c r="O37">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080258</v>
       </c>
       <c r="P37">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080257</v>
       </c>
       <c r="Q37">
-        <v>442.8900577667018</v>
+        <v>682.9921504466839</v>
       </c>
       <c r="R37">
-        <v>442.8900577667018</v>
+        <v>6146.929354020155</v>
       </c>
       <c r="S37">
-        <v>0.01114301525097284</v>
+        <v>0.0141731643432121</v>
       </c>
       <c r="T37">
-        <v>0.01114301525097284</v>
+        <v>0.0141731643432121</v>
       </c>
     </row>
   </sheetData>
